--- a/replication/temp/table5_panel2.xlsx
+++ b/replication/temp/table5_panel2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>drink_def</t>
   </si>
@@ -37,19 +37,16 @@
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(1.16)</t>
-  </si>
-  <si>
-    <t>(1.44)</t>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>(0.07)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(1.12)</t>
-  </si>
-  <si>
-    <t>(0.59)</t>
+    <t>(0.12)</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/replication/temp/table5_panel2.xlsx
+++ b/replication/temp/table5_panel2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>drink_def</t>
   </si>
@@ -37,16 +37,19 @@
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(0.76)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(0.12)</t>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -481,7 +484,7 @@
         <v>1594</v>
       </c>
       <c r="C7">
-        <v>7311</v>
+        <v>7310</v>
       </c>
     </row>
   </sheetData>
